--- a/natmiOut/OldD2/LR-pairs_lrc2p/Pdgfd-Pdgfrb.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Pdgfd-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>Pdgfrb</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.1365618771149</v>
+        <v>23.194402</v>
       </c>
       <c r="H2">
-        <v>23.1365618771149</v>
+        <v>46.388804</v>
       </c>
       <c r="I2">
-        <v>0.5212606098983712</v>
+        <v>0.5171730845306808</v>
       </c>
       <c r="J2">
-        <v>0.5212606098983712</v>
+        <v>0.4200517654029275</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.67364816592456</v>
+        <v>5.437025500000001</v>
       </c>
       <c r="N2">
-        <v>4.67364816592456</v>
+        <v>10.874051</v>
       </c>
       <c r="O2">
-        <v>0.04171636218071132</v>
+        <v>0.04126909818754922</v>
       </c>
       <c r="P2">
-        <v>0.04171636218071132</v>
+        <v>0.03353296176000882</v>
       </c>
       <c r="Q2">
-        <v>108.1321499827782</v>
+        <v>126.108555131251</v>
       </c>
       <c r="R2">
-        <v>108.1321499827782</v>
+        <v>504.4342205250041</v>
       </c>
       <c r="S2">
-        <v>0.02174509639305893</v>
+        <v>0.02134326680545436</v>
       </c>
       <c r="T2">
-        <v>0.02174509639305893</v>
+        <v>0.01408557978648057</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.1365618771149</v>
+        <v>23.194402</v>
       </c>
       <c r="H3">
-        <v>23.1365618771149</v>
+        <v>46.388804</v>
       </c>
       <c r="I3">
-        <v>0.5212606098983712</v>
+        <v>0.5171730845306808</v>
       </c>
       <c r="J3">
-        <v>0.5212606098983712</v>
+        <v>0.4200517654029275</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>39.6552658854129</v>
+        <v>42.07421266666666</v>
       </c>
       <c r="N3">
-        <v>39.6552658854129</v>
+        <v>126.222638</v>
       </c>
       <c r="O3">
-        <v>0.3539576312375314</v>
+        <v>0.3193593286815545</v>
       </c>
       <c r="P3">
-        <v>0.3539576312375314</v>
+        <v>0.3892403018250912</v>
       </c>
       <c r="Q3">
-        <v>917.4865129112992</v>
+        <v>975.8862024241586</v>
       </c>
       <c r="R3">
-        <v>917.4865129112992</v>
+        <v>5855.317214544952</v>
       </c>
       <c r="S3">
-        <v>0.1845041707370584</v>
+        <v>0.165164049087887</v>
       </c>
       <c r="T3">
-        <v>0.1845041707370584</v>
+        <v>0.1635010759475979</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,55 +658,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.1365618771149</v>
+        <v>23.194402</v>
       </c>
       <c r="H4">
-        <v>23.1365618771149</v>
+        <v>46.388804</v>
       </c>
       <c r="I4">
-        <v>0.5212606098983712</v>
+        <v>0.5171730845306808</v>
       </c>
       <c r="J4">
-        <v>0.5212606098983712</v>
+        <v>0.4200517654029275</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>9.752994945328281</v>
+        <v>0.01285266666666667</v>
       </c>
       <c r="N4">
-        <v>9.752994945328281</v>
+        <v>0.038558</v>
       </c>
       <c r="O4">
-        <v>0.08705393624885213</v>
+        <v>9.755664427884466E-05</v>
       </c>
       <c r="P4">
-        <v>0.08705393624885213</v>
+        <v>0.0001189036118685134</v>
       </c>
       <c r="Q4">
-        <v>225.6507710397766</v>
+        <v>0.2981099174386667</v>
       </c>
       <c r="R4">
-        <v>225.6507710397766</v>
+        <v>1.788659504632</v>
       </c>
       <c r="S4">
-        <v>0.04537778790313059</v>
+        <v>5.045367063815248E-05</v>
       </c>
       <c r="T4">
-        <v>0.04537778790313059</v>
+        <v>4.994567207815354E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +720,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.1365618771149</v>
+        <v>23.194402</v>
       </c>
       <c r="H5">
-        <v>23.1365618771149</v>
+        <v>46.388804</v>
       </c>
       <c r="I5">
-        <v>0.5212606098983712</v>
+        <v>0.5171730845306808</v>
       </c>
       <c r="J5">
-        <v>0.5212606098983712</v>
+        <v>0.4200517654029275</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>57.9520249709885</v>
+        <v>0.1273243333333333</v>
       </c>
       <c r="N5">
-        <v>57.9520249709885</v>
+        <v>0.381973</v>
       </c>
       <c r="O5">
-        <v>0.5172720703329052</v>
+        <v>0.0009664402740059944</v>
       </c>
       <c r="P5">
-        <v>0.5172720703329052</v>
+        <v>0.001177912996946202</v>
       </c>
       <c r="Q5">
-        <v>1340.810611645383</v>
+        <v>2.953211771715333</v>
       </c>
       <c r="R5">
-        <v>1340.810611645383</v>
+        <v>17.719270630292</v>
       </c>
       <c r="S5">
-        <v>0.2696335548651234</v>
+        <v>0.0004998168975223564</v>
       </c>
       <c r="T5">
-        <v>0.2696335548651234</v>
+        <v>0.0004947844338583055</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +782,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.973470494458057</v>
+        <v>23.194402</v>
       </c>
       <c r="H6">
-        <v>0.973470494458057</v>
+        <v>46.388804</v>
       </c>
       <c r="I6">
-        <v>0.02193203235443519</v>
+        <v>0.5171730845306808</v>
       </c>
       <c r="J6">
-        <v>0.02193203235443519</v>
+        <v>0.4200517654029275</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.67364816592456</v>
+        <v>18.57371366666667</v>
       </c>
       <c r="N6">
-        <v>4.67364816592456</v>
+        <v>55.721141</v>
       </c>
       <c r="O6">
-        <v>0.04171636218071132</v>
+        <v>0.1409815740273963</v>
       </c>
       <c r="P6">
-        <v>0.04171636218071132</v>
+        <v>0.1718306167937836</v>
       </c>
       <c r="Q6">
-        <v>4.549658591005573</v>
+        <v>430.8061814175607</v>
       </c>
       <c r="R6">
-        <v>4.549658591005573</v>
+        <v>2584.837088505364</v>
       </c>
       <c r="S6">
-        <v>0.0009149246050566972</v>
+        <v>0.07291187550173904</v>
       </c>
       <c r="T6">
-        <v>0.0009149246050566972</v>
+        <v>0.07217775393450272</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,55 +844,55 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.973470494458057</v>
+        <v>23.194402</v>
       </c>
       <c r="H7">
-        <v>0.973470494458057</v>
+        <v>46.388804</v>
       </c>
       <c r="I7">
-        <v>0.02193203235443519</v>
+        <v>0.5171730845306808</v>
       </c>
       <c r="J7">
-        <v>0.02193203235443519</v>
+        <v>0.4200517654029275</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.6552658854129</v>
+        <v>65.52055350000001</v>
       </c>
       <c r="N7">
-        <v>39.6552658854129</v>
+        <v>131.041107</v>
       </c>
       <c r="O7">
-        <v>0.3539576312375314</v>
+        <v>0.4973260021852153</v>
       </c>
       <c r="P7">
-        <v>0.3539576312375314</v>
+        <v>0.4040993030123018</v>
       </c>
       <c r="Q7">
-        <v>38.60323128933862</v>
+        <v>1519.710057141507</v>
       </c>
       <c r="R7">
-        <v>38.60323128933862</v>
+        <v>6078.840228566029</v>
       </c>
       <c r="S7">
-        <v>0.007763010220400779</v>
+        <v>0.2572036225674399</v>
       </c>
       <c r="T7">
-        <v>0.007763010220400779</v>
+        <v>0.1697426256284099</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,55 +906,55 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.973470494458057</v>
+        <v>1.072851</v>
       </c>
       <c r="H8">
-        <v>0.973470494458057</v>
+        <v>3.218553</v>
       </c>
       <c r="I8">
-        <v>0.02193203235443519</v>
+        <v>0.02392170580262537</v>
       </c>
       <c r="J8">
-        <v>0.02193203235443519</v>
+        <v>0.02914407687020533</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.752994945328281</v>
+        <v>5.437025500000001</v>
       </c>
       <c r="N8">
-        <v>9.752994945328281</v>
+        <v>10.874051</v>
       </c>
       <c r="O8">
-        <v>0.08705393624885213</v>
+        <v>0.04126909818754922</v>
       </c>
       <c r="P8">
-        <v>0.08705393624885213</v>
+        <v>0.03353296176000882</v>
       </c>
       <c r="Q8">
-        <v>9.494252811875652</v>
+        <v>5.833118244700501</v>
       </c>
       <c r="R8">
-        <v>9.494252811875652</v>
+        <v>34.998709468203</v>
       </c>
       <c r="S8">
-        <v>0.001909269746390763</v>
+        <v>0.000987227225582212</v>
       </c>
       <c r="T8">
-        <v>0.001909269746390763</v>
+        <v>0.0009772872152193531</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,60 +968,60 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.973470494458057</v>
+        <v>1.072851</v>
       </c>
       <c r="H9">
-        <v>0.973470494458057</v>
+        <v>3.218553</v>
       </c>
       <c r="I9">
-        <v>0.02193203235443519</v>
+        <v>0.02392170580262537</v>
       </c>
       <c r="J9">
-        <v>0.02193203235443519</v>
+        <v>0.02914407687020533</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>57.9520249709885</v>
+        <v>42.07421266666666</v>
       </c>
       <c r="N9">
-        <v>57.9520249709885</v>
+        <v>126.222638</v>
       </c>
       <c r="O9">
-        <v>0.5172720703329052</v>
+        <v>0.3193593286815545</v>
       </c>
       <c r="P9">
-        <v>0.5172720703329052</v>
+        <v>0.3892403018250912</v>
       </c>
       <c r="Q9">
-        <v>56.41458640335384</v>
+        <v>45.13936113364599</v>
       </c>
       <c r="R9">
-        <v>56.41458640335384</v>
+        <v>406.254250202814</v>
       </c>
       <c r="S9">
-        <v>0.01134482778258695</v>
+        <v>0.007639619906044084</v>
       </c>
       <c r="T9">
-        <v>0.01134482778258695</v>
+        <v>0.01134404927737238</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -1024,60 +1030,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.3622240583476</v>
+        <v>1.072851</v>
       </c>
       <c r="H10">
-        <v>19.3622240583476</v>
+        <v>3.218553</v>
       </c>
       <c r="I10">
-        <v>0.4362257787154735</v>
+        <v>0.02392170580262537</v>
       </c>
       <c r="J10">
-        <v>0.4362257787154735</v>
+        <v>0.02914407687020533</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>4.67364816592456</v>
+        <v>0.01285266666666667</v>
       </c>
       <c r="N10">
-        <v>4.67364816592456</v>
+        <v>0.038558</v>
       </c>
       <c r="O10">
-        <v>0.04171636218071132</v>
+        <v>9.755664427884466E-05</v>
       </c>
       <c r="P10">
-        <v>0.04171636218071132</v>
+        <v>0.0001189036118685134</v>
       </c>
       <c r="Q10">
-        <v>90.49222295851666</v>
+        <v>0.013788996286</v>
       </c>
       <c r="R10">
-        <v>90.49222295851666</v>
+        <v>0.124100966574</v>
       </c>
       <c r="S10">
-        <v>0.01819775257745752</v>
+        <v>2.333721343529897E-06</v>
       </c>
       <c r="T10">
-        <v>0.01819775257745752</v>
+        <v>3.465336004441013E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1092,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.3622240583476</v>
+        <v>1.072851</v>
       </c>
       <c r="H11">
-        <v>19.3622240583476</v>
+        <v>3.218553</v>
       </c>
       <c r="I11">
-        <v>0.4362257787154735</v>
+        <v>0.02392170580262537</v>
       </c>
       <c r="J11">
-        <v>0.4362257787154735</v>
+        <v>0.02914407687020533</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>39.6552658854129</v>
+        <v>0.1273243333333333</v>
       </c>
       <c r="N11">
-        <v>39.6552658854129</v>
+        <v>0.381973</v>
       </c>
       <c r="O11">
-        <v>0.3539576312375314</v>
+        <v>0.0009664402740059944</v>
       </c>
       <c r="P11">
-        <v>0.3539576312375314</v>
+        <v>0.001177912996946202</v>
       </c>
       <c r="Q11">
-        <v>767.8141431667125</v>
+        <v>0.136600038341</v>
       </c>
       <c r="R11">
-        <v>767.8141431667125</v>
+        <v>1.229400345069</v>
       </c>
       <c r="S11">
-        <v>0.1544054433188766</v>
+        <v>2.311889991058005E-05</v>
       </c>
       <c r="T11">
-        <v>0.1544054433188766</v>
+        <v>3.432918692941406E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1157,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.3622240583476</v>
+        <v>1.072851</v>
       </c>
       <c r="H12">
-        <v>19.3622240583476</v>
+        <v>3.218553</v>
       </c>
       <c r="I12">
-        <v>0.4362257787154735</v>
+        <v>0.02392170580262537</v>
       </c>
       <c r="J12">
-        <v>0.4362257787154735</v>
+        <v>0.02914407687020533</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.752994945328281</v>
+        <v>18.57371366666667</v>
       </c>
       <c r="N12">
-        <v>9.752994945328281</v>
+        <v>55.721141</v>
       </c>
       <c r="O12">
-        <v>0.08705393624885213</v>
+        <v>0.1409815740273963</v>
       </c>
       <c r="P12">
-        <v>0.08705393624885213</v>
+        <v>0.1718306167937836</v>
       </c>
       <c r="Q12">
-        <v>188.8396733713778</v>
+        <v>19.926827280997</v>
       </c>
       <c r="R12">
-        <v>188.8396733713778</v>
+        <v>179.341445528973</v>
       </c>
       <c r="S12">
-        <v>0.03797517113040271</v>
+        <v>0.003372519737474423</v>
       </c>
       <c r="T12">
-        <v>0.03797517113040271</v>
+        <v>0.005007844704492824</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,57 +1219,57 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.3622240583476</v>
+        <v>1.072851</v>
       </c>
       <c r="H13">
-        <v>19.3622240583476</v>
+        <v>3.218553</v>
       </c>
       <c r="I13">
-        <v>0.4362257787154735</v>
+        <v>0.02392170580262537</v>
       </c>
       <c r="J13">
-        <v>0.4362257787154735</v>
+        <v>0.02914407687020533</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>57.9520249709885</v>
+        <v>65.52055350000001</v>
       </c>
       <c r="N13">
-        <v>57.9520249709885</v>
+        <v>131.041107</v>
       </c>
       <c r="O13">
-        <v>0.5172720703329052</v>
+        <v>0.4973260021852153</v>
       </c>
       <c r="P13">
-        <v>0.5172720703329052</v>
+        <v>0.4040993030123018</v>
       </c>
       <c r="Q13">
-        <v>1122.080092123234</v>
+        <v>70.2937913430285</v>
       </c>
       <c r="R13">
-        <v>1122.080092123234</v>
+        <v>421.762748058171</v>
       </c>
       <c r="S13">
-        <v>0.2256474116887368</v>
+        <v>0.01189688631227054</v>
       </c>
       <c r="T13">
-        <v>0.2256474116887368</v>
+        <v>0.01177710115018692</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -1275,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.913529562283564</v>
+        <v>19.66620666666667</v>
       </c>
       <c r="H14">
-        <v>0.913529562283564</v>
+        <v>58.99862</v>
       </c>
       <c r="I14">
-        <v>0.0205815790317201</v>
+        <v>0.4385037718505456</v>
       </c>
       <c r="J14">
-        <v>0.0205815790317201</v>
+        <v>0.5342339605767045</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.67364816592456</v>
+        <v>5.437025500000001</v>
       </c>
       <c r="N14">
-        <v>4.67364816592456</v>
+        <v>10.874051</v>
       </c>
       <c r="O14">
-        <v>0.04171636218071132</v>
+        <v>0.04126909818754922</v>
       </c>
       <c r="P14">
-        <v>0.04171636218071132</v>
+        <v>0.03353296176000882</v>
       </c>
       <c r="Q14">
-        <v>4.269515763284445</v>
+        <v>106.9256671349367</v>
       </c>
       <c r="R14">
-        <v>4.269515763284445</v>
+        <v>641.5540028096201</v>
       </c>
       <c r="S14">
-        <v>0.0008585886051381694</v>
+        <v>0.01809665521611084</v>
       </c>
       <c r="T14">
-        <v>0.0008585886051381694</v>
+        <v>0.01791444697091669</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -1337,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.913529562283564</v>
+        <v>19.66620666666667</v>
       </c>
       <c r="H15">
-        <v>0.913529562283564</v>
+        <v>58.99862</v>
       </c>
       <c r="I15">
-        <v>0.0205815790317201</v>
+        <v>0.4385037718505456</v>
       </c>
       <c r="J15">
-        <v>0.0205815790317201</v>
+        <v>0.5342339605767045</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>39.6552658854129</v>
+        <v>42.07421266666666</v>
       </c>
       <c r="N15">
-        <v>39.6552658854129</v>
+        <v>126.222638</v>
       </c>
       <c r="O15">
-        <v>0.3539576312375314</v>
+        <v>0.3193593286815545</v>
       </c>
       <c r="P15">
-        <v>0.3539576312375314</v>
+        <v>0.3892403018250912</v>
       </c>
       <c r="Q15">
-        <v>36.2262576865396</v>
+        <v>827.440161639951</v>
       </c>
       <c r="R15">
-        <v>36.2262576865396</v>
+        <v>7446.961454759559</v>
       </c>
       <c r="S15">
-        <v>0.007285006961195692</v>
+        <v>0.1400402702025197</v>
       </c>
       <c r="T15">
-        <v>0.007285006961195692</v>
+        <v>0.2079453880600903</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
@@ -1396,117 +1402,613 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.913529562283564</v>
+        <v>19.66620666666667</v>
       </c>
       <c r="H16">
-        <v>0.913529562283564</v>
+        <v>58.99862</v>
       </c>
       <c r="I16">
-        <v>0.0205815790317201</v>
+        <v>0.4385037718505456</v>
       </c>
       <c r="J16">
-        <v>0.0205815790317201</v>
+        <v>0.5342339605767045</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>9.752994945328281</v>
+        <v>0.01285266666666667</v>
       </c>
       <c r="N16">
-        <v>9.752994945328281</v>
+        <v>0.038558</v>
       </c>
       <c r="O16">
-        <v>0.08705393624885213</v>
+        <v>9.755664427884466E-05</v>
       </c>
       <c r="P16">
-        <v>0.08705393624885213</v>
+        <v>0.0001189036118685134</v>
       </c>
       <c r="Q16">
-        <v>8.909649203359557</v>
+        <v>0.2527631988844445</v>
       </c>
       <c r="R16">
-        <v>8.909649203359557</v>
+        <v>2.27486878996</v>
       </c>
       <c r="S16">
-        <v>0.001791707468928073</v>
+        <v>4.277895648535533E-05</v>
       </c>
       <c r="T16">
-        <v>0.001791707468928073</v>
+        <v>6.352234749539115E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>19.66620666666667</v>
+      </c>
+      <c r="H17">
+        <v>58.99862</v>
+      </c>
+      <c r="I17">
+        <v>0.4385037718505456</v>
+      </c>
+      <c r="J17">
+        <v>0.5342339605767045</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1273243333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.381973</v>
+      </c>
+      <c r="O17">
+        <v>0.0009664402740059944</v>
+      </c>
+      <c r="P17">
+        <v>0.001177912996946202</v>
+      </c>
+      <c r="Q17">
+        <v>2.503986653028889</v>
+      </c>
+      <c r="R17">
+        <v>22.53587987726</v>
+      </c>
+      <c r="S17">
+        <v>0.0004237877054199033</v>
+      </c>
+      <c r="T17">
+        <v>0.0006292811255733452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>19.66620666666667</v>
+      </c>
+      <c r="H18">
+        <v>58.99862</v>
+      </c>
+      <c r="I18">
+        <v>0.4385037718505456</v>
+      </c>
+      <c r="J18">
+        <v>0.5342339605767045</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>18.57371366666667</v>
+      </c>
+      <c r="N18">
+        <v>55.721141</v>
+      </c>
+      <c r="O18">
+        <v>0.1409815740273963</v>
+      </c>
+      <c r="P18">
+        <v>0.1718306167937836</v>
+      </c>
+      <c r="Q18">
+        <v>365.2744915361578</v>
+      </c>
+      <c r="R18">
+        <v>3287.47042382542</v>
+      </c>
+      <c r="S18">
+        <v>0.06182095197244018</v>
+      </c>
+      <c r="T18">
+        <v>0.09179775095808099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>19.66620666666667</v>
+      </c>
+      <c r="H19">
+        <v>58.99862</v>
+      </c>
+      <c r="I19">
+        <v>0.4385037718505456</v>
+      </c>
+      <c r="J19">
+        <v>0.5342339605767045</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>65.52055350000001</v>
+      </c>
+      <c r="N19">
+        <v>131.041107</v>
+      </c>
+      <c r="O19">
+        <v>0.4973260021852153</v>
+      </c>
+      <c r="P19">
+        <v>0.4040993030123018</v>
+      </c>
+      <c r="Q19">
+        <v>1288.54074604539</v>
+      </c>
+      <c r="R19">
+        <v>7731.244476272341</v>
+      </c>
+      <c r="S19">
+        <v>0.2180793277975696</v>
+      </c>
+      <c r="T19">
+        <v>0.2158835711145478</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.913529562283564</v>
-      </c>
-      <c r="H17">
-        <v>0.913529562283564</v>
-      </c>
-      <c r="I17">
-        <v>0.0205815790317201</v>
-      </c>
-      <c r="J17">
-        <v>0.0205815790317201</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>57.9520249709885</v>
-      </c>
-      <c r="N17">
-        <v>57.9520249709885</v>
-      </c>
-      <c r="O17">
-        <v>0.5172720703329052</v>
-      </c>
-      <c r="P17">
-        <v>0.5172720703329052</v>
-      </c>
-      <c r="Q17">
-        <v>52.94088800519329</v>
-      </c>
-      <c r="R17">
-        <v>52.94088800519329</v>
-      </c>
-      <c r="S17">
-        <v>0.01064627599645817</v>
-      </c>
-      <c r="T17">
-        <v>0.01064627599645817</v>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.9149725</v>
+      </c>
+      <c r="H20">
+        <v>1.829945</v>
+      </c>
+      <c r="I20">
+        <v>0.02040143781614841</v>
+      </c>
+      <c r="J20">
+        <v>0.01657019715016279</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.437025500000001</v>
+      </c>
+      <c r="N20">
+        <v>10.874051</v>
+      </c>
+      <c r="O20">
+        <v>0.04126909818754922</v>
+      </c>
+      <c r="P20">
+        <v>0.03353296176000882</v>
+      </c>
+      <c r="Q20">
+        <v>4.974728814298751</v>
+      </c>
+      <c r="R20">
+        <v>19.898915257195</v>
+      </c>
+      <c r="S20">
+        <v>0.0008419489404018084</v>
+      </c>
+      <c r="T20">
+        <v>0.0005556477873922159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.9149725</v>
+      </c>
+      <c r="H21">
+        <v>1.829945</v>
+      </c>
+      <c r="I21">
+        <v>0.02040143781614841</v>
+      </c>
+      <c r="J21">
+        <v>0.01657019715016279</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>42.07421266666666</v>
+      </c>
+      <c r="N21">
+        <v>126.222638</v>
+      </c>
+      <c r="O21">
+        <v>0.3193593286815545</v>
+      </c>
+      <c r="P21">
+        <v>0.3892403018250912</v>
+      </c>
+      <c r="Q21">
+        <v>38.49674754915166</v>
+      </c>
+      <c r="R21">
+        <v>230.98048529491</v>
+      </c>
+      <c r="S21">
+        <v>0.006515389485103635</v>
+      </c>
+      <c r="T21">
+        <v>0.006449788540030631</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.9149725</v>
+      </c>
+      <c r="H22">
+        <v>1.829945</v>
+      </c>
+      <c r="I22">
+        <v>0.02040143781614841</v>
+      </c>
+      <c r="J22">
+        <v>0.01657019715016279</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.01285266666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.038558</v>
+      </c>
+      <c r="O22">
+        <v>9.755664427884466E-05</v>
+      </c>
+      <c r="P22">
+        <v>0.0001189036118685134</v>
+      </c>
+      <c r="Q22">
+        <v>0.01175983655166667</v>
+      </c>
+      <c r="R22">
+        <v>0.07055901931</v>
+      </c>
+      <c r="S22">
+        <v>1.99029581180696E-06</v>
+      </c>
+      <c r="T22">
+        <v>1.970256290527703E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.9149725</v>
+      </c>
+      <c r="H23">
+        <v>1.829945</v>
+      </c>
+      <c r="I23">
+        <v>0.02040143781614841</v>
+      </c>
+      <c r="J23">
+        <v>0.01657019715016279</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.1273243333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.381973</v>
+      </c>
+      <c r="O23">
+        <v>0.0009664402740059944</v>
+      </c>
+      <c r="P23">
+        <v>0.001177912996946202</v>
+      </c>
+      <c r="Q23">
+        <v>0.1164982635808333</v>
+      </c>
+      <c r="R23">
+        <v>0.698989581485</v>
+      </c>
+      <c r="S23">
+        <v>1.971677115315473E-05</v>
+      </c>
+      <c r="T23">
+        <v>1.951825058513767E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.9149725</v>
+      </c>
+      <c r="H24">
+        <v>1.829945</v>
+      </c>
+      <c r="I24">
+        <v>0.02040143781614841</v>
+      </c>
+      <c r="J24">
+        <v>0.01657019715016279</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>18.57371366666667</v>
+      </c>
+      <c r="N24">
+        <v>55.721141</v>
+      </c>
+      <c r="O24">
+        <v>0.1409815740273963</v>
+      </c>
+      <c r="P24">
+        <v>0.1718306167937836</v>
+      </c>
+      <c r="Q24">
+        <v>16.99443722787417</v>
+      </c>
+      <c r="R24">
+        <v>101.966623367245</v>
+      </c>
+      <c r="S24">
+        <v>0.002876226815742649</v>
+      </c>
+      <c r="T24">
+        <v>0.002847267196707067</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.9149725</v>
+      </c>
+      <c r="H25">
+        <v>1.829945</v>
+      </c>
+      <c r="I25">
+        <v>0.02040143781614841</v>
+      </c>
+      <c r="J25">
+        <v>0.01657019715016279</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>65.52055350000001</v>
+      </c>
+      <c r="N25">
+        <v>131.041107</v>
+      </c>
+      <c r="O25">
+        <v>0.4973260021852153</v>
+      </c>
+      <c r="P25">
+        <v>0.4040993030123018</v>
+      </c>
+      <c r="Q25">
+        <v>59.94950463727875</v>
+      </c>
+      <c r="R25">
+        <v>239.798018549115</v>
+      </c>
+      <c r="S25">
+        <v>0.01014616550793536</v>
+      </c>
+      <c r="T25">
+        <v>0.006696005119157213</v>
       </c>
     </row>
   </sheetData>
